--- a/Results/results_normal.xlsx
+++ b/Results/results_normal.xlsx
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -53,8 +53,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="2"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -270,10 +275,1581 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0315989"/>
-          <c:y val="0.0934655"/>
-          <c:w val="0.963401"/>
-          <c:h val="0.853617"/>
+          <c:x val="0.00957694"/>
+          <c:y val="0.0622236"/>
+          <c:w val="0.985423"/>
+          <c:h val="0.916288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1 - results'!$B$3:$B$62</c:f>
+              <c:numCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>93.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1 - results'!$C$3:$C$62</c:f>
+              <c:numCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>98.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="929292"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="929292"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1 - results'!$D$3:$D$62</c:f>
+              <c:numCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>98.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0409141"/>
+          <c:y val="0"/>
+          <c:w val="0.930308"/>
+          <c:h val="0.0479146"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0355978"/>
+          <c:y val="0.0816864"/>
+          <c:w val="0.958174"/>
+          <c:h val="0.822003"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -726,900 +2302,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1 - results'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Agent 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>296</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1 - results'!$C$3:$C$62</c:f>
-              <c:numCache>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>98.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1 - results'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Agent 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="50800" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="929292"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="50800" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="929292"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>296</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1 - results'!$D$3:$D$62</c:f>
-              <c:numCache>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>98.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.000000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:marker val="1"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
@@ -1631,8 +2313,37 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
@@ -1682,6 +2393,1389 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0656278"/>
+          <c:y val="0"/>
+          <c:w val="0.902013"/>
+          <c:h val="0.055082"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0361086"/>
+          <c:y val="0.0873597"/>
+          <c:w val="0.957574"/>
+          <c:h val="0.810509"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1 - results'!$C$3:$C$62</c:f>
+              <c:numCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>98.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0983016"/>
+          <c:y val="0"/>
+          <c:w val="0.87047"/>
+          <c:h val="0.0571713"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0343119"/>
+          <c:y val="0.0816864"/>
+          <c:w val="0.959373"/>
+          <c:h val="0.822003"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1 - results'!$A$3:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1 - results'!$D$3:$D$62</c:f>
+              <c:numCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>98.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1710,8 +3804,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
-        <c:minorUnit val="12.5"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1728,10 +3822,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0509016"/>
+          <c:x val="0.0641396"/>
           <c:y val="0"/>
-          <c:w val="0.916229"/>
-          <c:h val="0.0545228"/>
+          <c:w val="0.903449"/>
+          <c:h val="0.055082"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1748,7 +3842,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1775,16 +3869,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>98504</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159867</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>82740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>125007</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3577</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>172170</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97844</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1793,10 +3887,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2714704" y="0"/>
-          <a:ext cx="11456504" cy="5452513"/>
-          <a:chOff x="-362013" y="-471220"/>
-          <a:chExt cx="11456503" cy="5452511"/>
+          <a:off x="3411067" y="82740"/>
+          <a:ext cx="17792304" cy="8010390"/>
+          <a:chOff x="-170395" y="-471220"/>
+          <a:chExt cx="17792303" cy="8010389"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame>
@@ -1805,8 +3899,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="-362014" y="-471221"/>
-          <a:ext cx="11456504" cy="5041657"/>
+          <a:off x="-170396" y="-471221"/>
+          <a:ext cx="17792304" cy="7573022"/>
         </xdr:xfrm>
         <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1821,8 +3915,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-19050" y="4650459"/>
-            <a:ext cx="11102110" cy="330833"/>
+            <a:off x="-19050" y="7179974"/>
+            <a:ext cx="17629528" cy="359195"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1862,7 +3956,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1874,7 +3968,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1884,7 +3978,364 @@
                 <a:cs typeface="+mn-cs"/>
                 <a:sym typeface="Helvetica Neue"/>
               </a:rPr>
-              <a:t>No of Ghosts</a:t>
+              <a:t>Comparisons of every agent survivability in 100 maze</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323544</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>570441</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>40567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2939744" y="8704971"/>
+          <a:ext cx="18026898" cy="6206027"/>
+          <a:chOff x="-641718" y="-471220"/>
+          <a:chExt cx="18026896" cy="6206025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame>
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="2D Line Chart"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="-641718" y="-471221"/>
+          <a:ext cx="18026897" cy="5768658"/>
+        </xdr:xfrm>
+        <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Caption"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19050" y="5375611"/>
+            <a:ext cx="17311011" cy="359194"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:rPr>
+              <a:t>Agent 1 Survivability</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198671</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>207020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190553</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>219916</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2814871" y="15332085"/>
+          <a:ext cx="17771883" cy="5831402"/>
+          <a:chOff x="-641718" y="-471220"/>
+          <a:chExt cx="17771881" cy="5831400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame>
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="8" name="2D Line Chart"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="-641718" y="-471221"/>
+          <a:ext cx="17771881" cy="5394033"/>
+        </xdr:xfrm>
+        <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Caption"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19050" y="5000985"/>
+            <a:ext cx="17055995" cy="359195"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:rPr>
+              <a:t>Agent 2 Survivability</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387044</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>140129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>384197</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>27905</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3003244" y="21336429"/>
+          <a:ext cx="17777154" cy="6206027"/>
+          <a:chOff x="-609968" y="-471220"/>
+          <a:chExt cx="17777152" cy="6206025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame>
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="11" name="2D Line Chart"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="-609968" y="-471221"/>
+          <a:ext cx="17777152" cy="5768658"/>
+        </xdr:xfrm>
+        <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Caption"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19050" y="5375611"/>
+            <a:ext cx="17093016" cy="359194"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:rPr>
+              <a:t>Agent 4 Survivability</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
